--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajbc\Documents\UiPath\Excersises\Filtering the date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730DBA6-F8DF-4D51-B594-8665E3F450B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB337B-822B-4AED-85BB-06C61EA0DAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
       <c r="A30" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A19" xr:uid="{EFBD983F-3D84-4A3E-98B5-F78FCDC35FD2}">
+  <autoFilter ref="A1:A19" xr:uid="{417AA7EE-522D-4F42-8C7B-1AFFB81CFE47}">
     <filterColumn colId="0">
       <filters>
         <filter val="10-06-2021"/>
